--- a/Données_vent/Vent.xlsx
+++ b/Données_vent/Vent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/847b627be5f97550/Arthur/Programmation/Projet_routage/TIPE_Arthur_Lhoste/Logiciel/Données_vent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/847b627be5f97550/Arthur/Programmation/Python/Logiciel_routage/Données_vent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="8_{6AB1F8BF-0BCE-45DB-A9FF-250C9FC49FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{730A7436-95B6-440B-997F-CDFAD507C163}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="8_{6AB1F8BF-0BCE-45DB-A9FF-250C9FC49FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{018332D0-5DD0-48F4-9CA2-8D9403FAF990}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="2940" windowWidth="30936" windowHeight="16776" xr2:uid="{A973CA7D-4A48-4D4D-AB61-1755BF5454FC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A973CA7D-4A48-4D4D-AB61-1755BF5454FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,7 +434,7 @@
   <dimension ref="A1:BT36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BT31"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
